--- a/TCS_NEWUI_SSOLogin.xlsx
+++ b/TCS_NEWUI_SSOLogin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5477A2-E5DA-4F95-8BF3-A1CAAFFB96B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CEC924-0A95-4E21-A1F7-6DECEDD9AE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -47,19 +47,11 @@
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -276,9 +268,6 @@
 4. "What is Numerator?" link</t>
   </si>
   <si>
-    <t>Under development</t>
-  </si>
-  <si>
     <t>Enter valid credentials and click on Login button</t>
   </si>
   <si>
@@ -372,6 +361,46 @@
   <si>
     <t>User Story: SMART-Single sign on
 As a SMART User, I want to have the ability to understand Single sign on functionality</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>SMRT-8052</t>
+  </si>
+  <si>
+    <t>US:TC 07</t>
+  </si>
+  <si>
+    <t>Once legacy login user logs out at that time it should be redirected to hybrid login page</t>
+  </si>
+  <si>
+    <t>MTG auth login window should be open</t>
+  </si>
+  <si>
+    <t>Settings page should be open</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User should be logsout and redirected to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hybrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> login page.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2089,6 +2118,24 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="147" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2097,24 +2144,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="29" borderId="36" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,7 +2630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3103,7 +3132,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -4086,7 +4115,7 @@
       </c>
       <c r="B8" s="38">
         <f>'SMART- Field options'!G7</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="38">
         <f>'SMART- Field options'!G8</f>
@@ -4102,7 +4131,7 @@
       </c>
       <c r="F8" s="38">
         <f>SUM(B8:E8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="43">
         <f>(B8+C8+D8)/(F8)</f>
@@ -4124,7 +4153,7 @@
       </c>
       <c r="B10" s="44">
         <f>SUM(B8:B9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="44">
         <f>SUM(C8:C9)</f>
@@ -4140,7 +4169,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F8:F9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="40">
         <f>SUM(G8:G8)</f>
@@ -4179,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4459,7 +4488,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>10</v>
@@ -4490,7 +4519,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="5"/>
@@ -4501,10 +4530,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -4514,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>58</v>
@@ -4534,9 +4563,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="80"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
+      <c r="B8" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>99</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7">
@@ -5009,9 +5044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G877"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -5758,7 +5791,7 @@
       </c>
       <c r="G7" s="20">
         <f>COUNTIF(G11:G1003,"Pass")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5818,7 +5851,7 @@
       </c>
       <c r="C11" s="34">
         <f>G7</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="9"/>
@@ -5884,7 +5917,7 @@
     </row>
     <row r="17" spans="1:7" s="45" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -5897,12 +5930,12 @@
       <c r="A18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="47" t="s">
         <v>27</v>
       </c>
@@ -5915,14 +5948,14 @@
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" s="45" customFormat="1">
       <c r="A20" s="50" t="s">
@@ -5968,43 +6001,43 @@
       <c r="A22" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" s="45" customFormat="1">
       <c r="A23" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="48" t="str">
         <f>IF(COUNTIF(F26:F29,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F26:F29,"Fail")&gt;0,"Fail",IF(COUNTIF(F26:F29,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="45" customFormat="1">
       <c r="A24" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" s="45" customFormat="1">
       <c r="A25" s="50" t="s">
@@ -6051,10 +6084,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="53" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>77</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
@@ -6068,10 +6101,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
@@ -6085,41 +6118,39 @@
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="53" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>67</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" s="57" customFormat="1">
       <c r="A30" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
     </row>
     <row r="31" spans="1:7" s="45" customFormat="1">
       <c r="A31" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
+        <v>73</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="47" t="s">
         <v>27</v>
       </c>
@@ -6132,14 +6163,14 @@
       <c r="A32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="33" spans="1:7" s="45" customFormat="1">
       <c r="A33" s="50" t="s">
@@ -6186,10 +6217,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="53" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>79</v>
       </c>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -6203,10 +6234,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
@@ -6220,10 +6251,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
@@ -6236,23 +6267,23 @@
       <c r="A38" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1">
       <c r="A39" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
+        <v>74</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="47" t="s">
         <v>27</v>
       </c>
@@ -6265,14 +6296,14 @@
       <c r="A40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" s="45" customFormat="1">
       <c r="A41" s="50" t="s">
@@ -6319,10 +6350,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="53" t="s">
         <v>76</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>77</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -6336,10 +6367,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
@@ -6370,10 +6401,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="53" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>85</v>
       </c>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
@@ -6386,23 +6417,23 @@
       <c r="A47" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1">
       <c r="A48" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="86"/>
+        <v>85</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="47" t="s">
         <v>27</v>
       </c>
@@ -6415,14 +6446,14 @@
       <c r="A49" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1">
       <c r="A50" s="50" t="s">
@@ -6469,10 +6500,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="53" t="s">
         <v>78</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>79</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -6486,10 +6517,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
@@ -6503,10 +6534,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="53" t="s">
         <v>90</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>91</v>
       </c>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
@@ -6520,10 +6551,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="53"/>
       <c r="E55" s="53"/>
@@ -6537,10 +6568,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
@@ -6554,10 +6585,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="53" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>88</v>
       </c>
       <c r="D57" s="53"/>
       <c r="E57" s="53"/>
@@ -6570,23 +6601,23 @@
       <c r="A58" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="89"/>
     </row>
     <row r="59" spans="1:7" s="45" customFormat="1">
       <c r="A59" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="47" t="s">
         <v>27</v>
       </c>
@@ -6599,14 +6630,14 @@
       <c r="A60" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="86"/>
     </row>
     <row r="61" spans="1:7" s="45" customFormat="1">
       <c r="A61" s="50" t="s">
@@ -6653,10 +6684,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="53" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>77</v>
       </c>
       <c r="D63" s="53"/>
       <c r="E63" s="53"/>
@@ -6670,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>69</v>
       </c>
       <c r="D64" s="53"/>
       <c r="E64" s="53"/>
@@ -6687,10 +6718,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="53" t="s">
         <v>93</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>94</v>
       </c>
       <c r="D65" s="53"/>
       <c r="E65" s="53"/>
@@ -6704,10 +6735,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="53" t="s">
         <v>95</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>96</v>
       </c>
       <c r="D66" s="53"/>
       <c r="E66" s="53"/>
@@ -6720,93 +6751,162 @@
       <c r="A67" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="89"/>
+    </row>
+    <row r="68" spans="1:7" s="45" customFormat="1">
+      <c r="A68" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="48" t="str">
+        <f>IF(COUNTIF(F71:F75,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F71:F75,"Fail")&gt;0,"Fail",IF(COUNTIF(F71:F75,"")=0,"Pass","Not Executed")))</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="45" customFormat="1">
+      <c r="A69" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="86"/>
+    </row>
+    <row r="70" spans="1:7" s="45" customFormat="1">
+      <c r="A70" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="45" customFormat="1" ht="75">
+      <c r="A71" s="51">
+        <v>1</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="55"/>
+    </row>
+    <row r="72" spans="1:7" s="45" customFormat="1" ht="15.75">
+      <c r="A72" s="51">
+        <v>2</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="1:7" s="45" customFormat="1" ht="15.75">
+      <c r="A73" s="51">
+        <v>3</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="55"/>
+    </row>
+    <row r="74" spans="1:7" s="45" customFormat="1" ht="15.75">
+      <c r="A74" s="51">
+        <v>4</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="55"/>
+    </row>
+    <row r="75" spans="1:7" s="45" customFormat="1" ht="15.75">
+      <c r="A75" s="51">
+        <v>4</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="55"/>
+    </row>
+    <row r="76" spans="1:7" s="57" customFormat="1">
+      <c r="A76" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="89"/>
     </row>
     <row r="77" spans="1:7" ht="30.95" customHeight="1">
       <c r="A77"/>
@@ -13500,7 +13600,7 @@
       <c r="F877" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B47:G47"/>
@@ -13517,6 +13617,9 @@
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B76:G76"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B49:G49"/>
@@ -13525,7 +13628,7 @@
     <mergeCell ref="B60:G60"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F360:F362 F367:F373 F586:F588 F576:F581 F378:F387 F392:F395 F400:F405 F410:F418 F423:F432 F437:F447 F452:F462 F478:F484 F506:F508 F467:F473 F489:F495 F500:F501 F513:F519 F524:F530 F546:F548 F535:F541 F553:F556 F561:F563 F568:F571 F26:F29 F21 F34:F37 F42:F46 F62:F66 F51:F57" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F360:F362 F367:F373 F586:F588 F576:F581 F378:F387 F392:F395 F400:F405 F410:F418 F423:F432 F437:F447 F452:F462 F478:F484 F506:F508 F467:F473 F489:F495 F500:F501 F513:F519 F524:F530 F546:F548 F535:F541 F553:F556 F561:F563 F568:F571 F26:F29 F21 F34:F37 F42:F46 F62:F66 F51:F57 F71:F75" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
